--- a/docs/Office UI Help Files/powerpointcontrols.xlsx
+++ b/docs/Office UI Help Files/powerpointcontrols.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="29150" windowHeight="16070"/>
+    <workbookView windowWidth="27945" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="powerpointcontrols" sheetId="1" r:id="rId1"/>
@@ -5495,21 +5495,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J3526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1174" workbookViewId="0">
-      <selection activeCell="I1201" sqref="I1201"/>
+    <sheetView tabSelected="1" topLeftCell="A903" workbookViewId="0">
+      <selection activeCell="A924" sqref="A924"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="23.7818181818182" customWidth="1"/>
-    <col min="3" max="3" width="31.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="28.8181818181818" customWidth="1"/>
-    <col min="5" max="6" width="21.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="24.4454545454545" customWidth="1"/>
+    <col min="1" max="1" width="42.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.7833333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.725" customWidth="1"/>
+    <col min="4" max="4" width="28.8166666666667" customWidth="1"/>
+    <col min="5" max="6" width="21.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.4416666666667" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="17.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="20.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="17.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="20.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
